--- a/09 Registros de Producción/programacion semanal de alimento/2023/Modulo 3 Lote M620-F619/vacunacion/Plan_y_Suministro_de_Vacunas F619 M620.xlsx
+++ b/09 Registros de Producción/programacion semanal de alimento/2023/Modulo 3 Lote M620-F619/vacunacion/Plan_y_Suministro_de_Vacunas F619 M620.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aviagen\09 Registros de Producción\programacion semanal de alimento\2023\Modulo 3 Lote M620-F619\vacunacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aviagen\Produccion\09 Registros de Producción\programacion semanal de alimento\2023\Modulo 3 Lote M620-F619\vacunacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="9720" windowHeight="6000" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="9720" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="F619" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="131">
   <si>
     <t>UNIDAD DE PRODUCCION:</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>022N4L1KNA</t>
+  </si>
+  <si>
+    <t>023N4L1KNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8523-BV             </t>
   </si>
 </sst>
 </file>
@@ -980,6 +986,63 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,9 +1064,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1016,62 +1076,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1080,9 +1089,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1706,50 +1712,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="66" t="s">
+      <c r="A1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
       <c r="K1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="68" t="s">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
@@ -1764,38 +1770,38 @@
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
       <c r="I4" s="42"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="92">
         <v>3</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1803,10 +1809,10 @@
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="79">
+      <c r="I6" s="74">
         <v>45428</v>
       </c>
-      <c r="J6" s="78"/>
+      <c r="J6" s="73"/>
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1823,58 +1829,58 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="77" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="79" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="79" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="71" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="84"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="84"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="77"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:11" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50">
@@ -2441,54 +2447,54 @@
         <v>15</v>
       </c>
       <c r="B26" s="11"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="91"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="91"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="92"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="91"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="92"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="91"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
@@ -2506,57 +2512,55 @@
     <row r="31" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="1"/>
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="86" t="s">
+      <c r="H32" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="86"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="6"/>
       <c r="K32" s="23"/>
     </row>
     <row r="33" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="88"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="90"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="I6:J6"/>
@@ -2567,13 +2571,15 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="H31:I31"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0.23622047244094491"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -2586,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="K18" sqref="A1:K18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2606,50 +2612,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="66" t="s">
+      <c r="A1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
       <c r="K1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="68" t="s">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
@@ -2664,38 +2670,38 @@
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
       <c r="I4" s="42"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="92">
         <v>3</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="55"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -2703,10 +2709,10 @@
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="79">
+      <c r="I6" s="74">
         <v>45428</v>
       </c>
-      <c r="J6" s="78"/>
+      <c r="J6" s="73"/>
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2723,58 +2729,58 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="77" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="79" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="79" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="71" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="84"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="84"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="77"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:11" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50">
@@ -3267,17 +3273,39 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="A24" s="29">
+        <v>56</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="30">
+        <v>45818</v>
+      </c>
+      <c r="G24" s="31">
+        <v>14000</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="43">
+        <v>45941</v>
+      </c>
+      <c r="J24" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="51" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" spans="1:11" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29"/>
@@ -3297,54 +3325,54 @@
         <v>15</v>
       </c>
       <c r="B26" s="11"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="91"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="91"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="92"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="91"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="92"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="91"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
@@ -3362,48 +3390,64 @@
     <row r="31" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="1"/>
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="86" t="s">
+      <c r="H32" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="86"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="6"/>
       <c r="K32" s="23"/>
     </row>
     <row r="33" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="88"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="90"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="A33:K33"/>
@@ -3414,22 +3458,6 @@
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0.23622047244094491"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3462,50 +3490,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="66" t="s">
+      <c r="A1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
       <c r="K1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="68" t="s">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
@@ -3520,38 +3548,38 @@
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="74" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="92">
         <v>3</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -3559,10 +3587,10 @@
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="79">
+      <c r="I6" s="74">
         <v>45428</v>
       </c>
-      <c r="J6" s="78"/>
+      <c r="J6" s="73"/>
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3579,58 +3607,58 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="96" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="94" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="94" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="94" t="s">
+      <c r="K8" s="95" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="84"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="84"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="77"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:11" s="33" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
@@ -4232,54 +4260,54 @@
         <v>15</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="91"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="92"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="91"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="92"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="91"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="92"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="91"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
@@ -4297,63 +4325,48 @@
     <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
       <c r="J32" s="1"/>
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="86" t="s">
+      <c r="H33" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="86"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="6"/>
       <c r="K33" s="23"/>
     </row>
     <row r="34" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="88"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="90"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
@@ -4365,6 +4378,21 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A30:K30"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0.23622047244094491"/>
   <pageSetup scale="76" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4377,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:K13"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4397,50 +4425,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="66" t="s">
+      <c r="A1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
       <c r="K1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="68" t="s">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
@@ -4455,38 +4483,38 @@
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="74" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="92">
         <v>3</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -4494,10 +4522,10 @@
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="79">
+      <c r="I6" s="74">
         <v>45428</v>
       </c>
-      <c r="J6" s="78"/>
+      <c r="J6" s="73"/>
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4514,58 +4542,58 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="96" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="94" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="94" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="94" t="s">
+      <c r="K8" s="95" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="84"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="84"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="77"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:11" s="33" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50">
@@ -4813,17 +4841,39 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="33" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="49"/>
+      <c r="A17" s="50">
+        <v>56</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="36">
+        <v>45818</v>
+      </c>
+      <c r="G17" s="37">
+        <v>4000</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="36">
+        <v>45941</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:11" s="33" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
@@ -4947,54 +4997,54 @@
         <v>15</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="91"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="92"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="91"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="92"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="91"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="92"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="91"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
@@ -5012,48 +5062,64 @@
     <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
       <c r="J32" s="1"/>
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="86" t="s">
+      <c r="H33" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="86"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="6"/>
       <c r="K33" s="23"/>
     </row>
     <row r="34" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="88"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="90"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="A34:K34"/>
@@ -5064,22 +5130,6 @@
     <mergeCell ref="A30:K30"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0.23622047244094491"/>
   <pageSetup scale="76" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
